--- a/NguyenThiHoangAnh_K234161818_BIM4014/Part1.xlsx
+++ b/NguyenThiHoangAnh_K234161818_BIM4014/Part1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NguyenThiHoangAnh_K234161818_BIM4014\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoang Anh\Downloads\NguyenThiHoangAnh_K234161818_BIM4014\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8C3B3F-EC41-47C5-A328-440E20AAEF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D95D16-D866-4BF7-98B5-6076FCFF953C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,24 +611,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -655,6 +637,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7589,15 +7589,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>241042</xdr:colOff>
-      <xdr:row>994</xdr:row>
-      <xdr:rowOff>47431</xdr:rowOff>
+      <xdr:colOff>69981</xdr:colOff>
+      <xdr:row>990</xdr:row>
+      <xdr:rowOff>179613</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>241042</xdr:colOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>513183</xdr:colOff>
       <xdr:row>1008</xdr:row>
-      <xdr:rowOff>162508</xdr:rowOff>
+      <xdr:rowOff>171060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7914,8 +7914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K975" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE993" sqref="AE993"/>
+    <sheetView tabSelected="1" topLeftCell="P975" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AJ990" sqref="AJ990"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -7940,40 +7940,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.45">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="30" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30" t="s">
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="Q1" s="31" t="s">
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="Q1" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="33"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="42"/>
       <c r="W1" s="29"/>
-      <c r="X1" s="31" t="s">
+      <c r="X1" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="33"/>
+      <c r="Y1" s="42"/>
       <c r="Z1" s="10" t="s">
         <v>35</v>
       </c>
@@ -53342,40 +53342,40 @@
       </c>
     </row>
     <row r="1005" spans="1:26">
-      <c r="X1005" s="36" t="s">
+      <c r="X1005" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="Y1005" s="37"/>
-      <c r="Z1005" s="38"/>
+      <c r="Y1005" s="31"/>
+      <c r="Z1005" s="32"/>
     </row>
     <row r="1006" spans="1:26">
-      <c r="X1006" s="39"/>
-      <c r="Y1006" s="40"/>
-      <c r="Z1006" s="41"/>
+      <c r="X1006" s="33"/>
+      <c r="Y1006" s="34"/>
+      <c r="Z1006" s="35"/>
     </row>
     <row r="1007" spans="1:26">
-      <c r="X1007" s="39"/>
-      <c r="Y1007" s="40"/>
-      <c r="Z1007" s="41"/>
+      <c r="X1007" s="33"/>
+      <c r="Y1007" s="34"/>
+      <c r="Z1007" s="35"/>
     </row>
     <row r="1008" spans="1:26">
-      <c r="X1008" s="39"/>
-      <c r="Y1008" s="40"/>
-      <c r="Z1008" s="41"/>
+      <c r="X1008" s="33"/>
+      <c r="Y1008" s="34"/>
+      <c r="Z1008" s="35"/>
     </row>
     <row r="1009" spans="24:26" ht="15" thickBot="1">
-      <c r="X1009" s="42"/>
-      <c r="Y1009" s="43"/>
-      <c r="Z1009" s="44"/>
+      <c r="X1009" s="36"/>
+      <c r="Y1009" s="37"/>
+      <c r="Z1009" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="X1005:Z1009"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:O1"/>
     <mergeCell ref="Q1:V1"/>
     <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
